--- a/LakeHodges/Equipment Settings.xlsx
+++ b/LakeHodges/Equipment Settings.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.messina\Documents\GitHub\Sutron_scripts\LakeHodges\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A88250-BEFC-44B8-AAAD-C9A56DBFE202}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9120" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sutron" sheetId="4" r:id="rId1"/>
@@ -266,7 +267,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -357,7 +358,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="EsriDoNotEdit"/>
+        <xdr:cNvPr id="2" name="EsriDoNotEdit">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -696,32 +703,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
         <v>36</v>
@@ -744,7 +751,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -773,37 +780,37 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -816,7 +823,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -839,7 +846,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -862,7 +869,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -885,7 +892,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -908,7 +915,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -931,7 +938,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -954,7 +961,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -977,7 +984,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1002,7 +1009,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1031,30 +1038,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1062,7 +1069,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1121,12 +1128,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1185,7 +1192,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1202,7 +1209,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1219,7 +1226,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1236,7 +1243,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1253,12 +1260,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1275,7 +1282,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1292,7 +1299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1309,7 +1316,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1326,7 +1333,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1343,7 +1350,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1360,7 +1367,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1377,7 +1384,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1394,7 +1401,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1417,30 +1424,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1457,12 +1464,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1476,7 +1483,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1490,7 +1497,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1504,7 +1511,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1518,7 +1525,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1532,12 +1539,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1551,7 +1558,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1565,7 +1572,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1579,7 +1586,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1593,7 +1600,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1607,7 +1614,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1621,7 +1628,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1635,7 +1642,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1649,7 +1656,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1669,12 +1676,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/LakeHodges/Equipment Settings.xlsx
+++ b/LakeHodges/Equipment Settings.xlsx
@@ -1,34 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.messina\Documents\GitHub\Sutron_scripts\LakeHodges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A88250-BEFC-44B8-AAAD-C9A56DBFE202}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5F1523-519C-4D8D-BA7F-B4A51EA0ADE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sutron" sheetId="4" r:id="rId1"/>
-    <sheet name="SD900 sampler" sheetId="1" r:id="rId2"/>
-    <sheet name="Sigma 950 Flowmeter" sheetId="3" r:id="rId3"/>
+    <sheet name="Sigma 950 Flowmeter" sheetId="5" r:id="rId2"/>
+    <sheet name="SD900 sampler" sheetId="6" r:id="rId3"/>
     <sheet name="ESRI_MAPINFO_SHEET" sheetId="2" state="veryHidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="195">
   <si>
     <t>SD900 Sampler Settings</t>
   </si>
@@ -111,27 +120,9 @@
     <t>Area Velocity</t>
   </si>
   <si>
-    <t>Head vs Flow</t>
-  </si>
-  <si>
-    <t>Conveyance</t>
-  </si>
-  <si>
-    <t>Pipe</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
     <t>Trapezoidal</t>
   </si>
   <si>
-    <t>Recording Interval</t>
-  </si>
-  <si>
-    <t>1 min</t>
-  </si>
-  <si>
     <t>Sutron Xlink500 Datalogger Settings</t>
   </si>
   <si>
@@ -156,9 +147,6 @@
     <t>bottle_size_L</t>
   </si>
   <si>
-    <t>pacing_volume_cf</t>
-  </si>
-  <si>
     <t>bottle_num</t>
   </si>
   <si>
@@ -168,9 +156,6 @@
     <t>Measurements</t>
   </si>
   <si>
-    <t>M1 - Alarm1</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
@@ -180,15 +165,9 @@
     <t>tx mode</t>
   </si>
   <si>
-    <t>Tx In And Out</t>
-  </si>
-  <si>
     <t>Bottle Volume</t>
   </si>
   <si>
-    <t>10 ft</t>
-  </si>
-  <si>
     <t>3/8" Teflon</t>
   </si>
   <si>
@@ -201,9 +180,6 @@
     <t>Take Sample Every</t>
   </si>
   <si>
-    <t>1 count</t>
-  </si>
-  <si>
     <t>Override Time</t>
   </si>
   <si>
@@ -262,13 +238,401 @@
   </si>
   <si>
     <t>None checked</t>
+  </si>
+  <si>
+    <t>sample_pacing</t>
+  </si>
+  <si>
+    <t>GP6</t>
+  </si>
+  <si>
+    <t>pipe_diam</t>
+  </si>
+  <si>
+    <t>M12 - Alarm1</t>
+  </si>
+  <si>
+    <t>1" above current</t>
+  </si>
+  <si>
+    <t>Tx In</t>
+  </si>
+  <si>
+    <t>0.5"</t>
+  </si>
+  <si>
+    <t>0.5" or 0.5" above current</t>
+  </si>
+  <si>
+    <t>Data Log</t>
+  </si>
+  <si>
+    <t>If Velocity is being recorded</t>
+  </si>
+  <si>
+    <t>Serial # (file ext)</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Level Sensor</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Sampler Pacing</t>
+  </si>
+  <si>
+    <t>Flow units</t>
+  </si>
+  <si>
+    <t>Total flow units</t>
+  </si>
+  <si>
+    <t>Level units</t>
+  </si>
+  <si>
+    <t>Program Lock</t>
+  </si>
+  <si>
+    <t>RS-232 Baud rate</t>
+  </si>
+  <si>
+    <t>Modem Power</t>
+  </si>
+  <si>
+    <t>Days to Log</t>
+  </si>
+  <si>
+    <t>Rainfall Units</t>
+  </si>
+  <si>
+    <t>Rainfall</t>
+  </si>
+  <si>
+    <t>Flow Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow </t>
+  </si>
+  <si>
+    <t>Level Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level </t>
+  </si>
+  <si>
+    <t>Velocity Units</t>
+  </si>
+  <si>
+    <t>Velocity</t>
+  </si>
+  <si>
+    <t>Memory Mode</t>
+  </si>
+  <si>
+    <t>Velocity Direction</t>
+  </si>
+  <si>
+    <t>Velocity Cutoff</t>
+  </si>
+  <si>
+    <t>Velocity Default</t>
+  </si>
+  <si>
+    <t>ETZ</t>
+  </si>
+  <si>
+    <t>DW0914 - Lomica</t>
+  </si>
+  <si>
+    <t>Bubbler</t>
+  </si>
+  <si>
+    <t>Circ Pipe</t>
+  </si>
+  <si>
+    <t>gpm</t>
+  </si>
+  <si>
+    <t>gal</t>
+  </si>
+  <si>
+    <t>inches</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Not logged</t>
+  </si>
+  <si>
+    <t>5min</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>fps</t>
+  </si>
+  <si>
+    <t>Wrap</t>
+  </si>
+  <si>
+    <t>HXG</t>
+  </si>
+  <si>
+    <t>DW0011 - Oceans11</t>
+  </si>
+  <si>
+    <t>JEU</t>
+  </si>
+  <si>
+    <t>DW0317 - Tazon</t>
+  </si>
+  <si>
+    <t>IFZ</t>
+  </si>
+  <si>
+    <t>HDG_102 Via Rancho Pkwy</t>
+  </si>
+  <si>
+    <t>cfs</t>
+  </si>
+  <si>
+    <t>cf</t>
+  </si>
+  <si>
+    <t>Always Pos</t>
+  </si>
+  <si>
+    <t>DV2</t>
+  </si>
+  <si>
+    <t>HDG_101_ElKu</t>
+  </si>
+  <si>
+    <t>WidthBottom:12in, WidthTop:82in,ChanDepth:24in</t>
+  </si>
+  <si>
+    <t>Power:k1, n1, k2, n2</t>
+  </si>
+  <si>
+    <t>EUG</t>
+  </si>
+  <si>
+    <t>DelDios</t>
+  </si>
+  <si>
+    <t>Power Equation</t>
+  </si>
+  <si>
+    <t>0.01,1.20,0.01,2.6</t>
+  </si>
+  <si>
+    <t>9999999999 cf</t>
+  </si>
+  <si>
+    <t>1min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in </t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>ETW</t>
+  </si>
+  <si>
+    <t>0.400,1.70,.01,2.5</t>
+  </si>
+  <si>
+    <t>999999999cf</t>
+  </si>
+  <si>
+    <t>IF1</t>
+  </si>
+  <si>
+    <t>KitCarson</t>
+  </si>
+  <si>
+    <t>0.200,2.00,0.015,1.80</t>
+  </si>
+  <si>
+    <t>DUN</t>
+  </si>
+  <si>
+    <t>Cloverdale_draft</t>
+  </si>
+  <si>
+    <t>1.00,1.25,0.00,3.90</t>
+  </si>
+  <si>
+    <t>JUK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Equation </t>
+  </si>
+  <si>
+    <t>0.01,1.00,0.03,2.55</t>
+  </si>
+  <si>
+    <t>XXXXXXXXXX</t>
+  </si>
+  <si>
+    <t>FNE</t>
+  </si>
+  <si>
+    <t>0,3.0,0.015,3.0</t>
+  </si>
+  <si>
+    <t>EUC</t>
+  </si>
+  <si>
+    <t>0,3.0,0,3.85</t>
+  </si>
+  <si>
+    <t>DUH</t>
+  </si>
+  <si>
+    <t>GreenValley</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>EUJ</t>
+  </si>
+  <si>
+    <t>0.010, 1.2, 0.100, 2.50</t>
+  </si>
+  <si>
+    <t>999999999 cf</t>
+  </si>
+  <si>
+    <t>1 counts</t>
+  </si>
+  <si>
+    <t>5Gal</t>
+  </si>
+  <si>
+    <t>DW0011</t>
+  </si>
+  <si>
+    <t>20L</t>
+  </si>
+  <si>
+    <t>11 ft</t>
+  </si>
+  <si>
+    <t>HDG102</t>
+  </si>
+  <si>
+    <t>ElKu</t>
+  </si>
+  <si>
+    <t>25 ft</t>
+  </si>
+  <si>
+    <t>DW053</t>
+  </si>
+  <si>
+    <t>27 ft</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 counts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continuous </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enabled </t>
+  </si>
+  <si>
+    <t xml:space="preserve">250 mL </t>
+  </si>
+  <si>
+    <t>Clover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow based </t>
+  </si>
+  <si>
+    <t>SDC01</t>
+  </si>
+  <si>
+    <t>SYC2</t>
+  </si>
+  <si>
+    <t>PVC</t>
+  </si>
+  <si>
+    <t>M3-MetaIndex</t>
+  </si>
+  <si>
+    <t>flow data source for pacing</t>
+  </si>
+  <si>
+    <t>M1-Units</t>
+  </si>
+  <si>
+    <t>M3-Units</t>
+  </si>
+  <si>
+    <t>M13-Units</t>
+  </si>
+  <si>
+    <t>13 (PT)</t>
+  </si>
+  <si>
+    <t>8 (950)</t>
+  </si>
+  <si>
+    <t>16 ft</t>
+  </si>
+  <si>
+    <t>26 ft</t>
+  </si>
+  <si>
+    <t>82 ft</t>
+  </si>
+  <si>
+    <t>51 ft</t>
+  </si>
+  <si>
+    <t>19 ft</t>
+  </si>
+  <si>
+    <t>65 ft</t>
+  </si>
+  <si>
+    <t>14 ft</t>
+  </si>
+  <si>
+    <t>17 ft</t>
+  </si>
+  <si>
+    <t>6 ft</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,16 +657,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -310,11 +705,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -324,8 +801,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -704,332 +1218,733 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="F3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P3" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>40000</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>19</v>
+      </c>
+      <c r="F5">
+        <v>250</v>
+      </c>
+      <c r="G5">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>107</v>
+      </c>
+      <c r="J5" t="s">
+        <v>184</v>
+      </c>
+      <c r="K5" t="s">
+        <v>107</v>
+      </c>
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>250</v>
+      </c>
+      <c r="G6">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6" t="s">
+        <v>184</v>
+      </c>
+      <c r="K6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>250</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3500</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <v>250</v>
+      </c>
+      <c r="G8">
+        <v>60</v>
+      </c>
+      <c r="I8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J8" t="s">
+        <v>184</v>
+      </c>
+      <c r="K8" t="s">
+        <v>122</v>
+      </c>
+      <c r="M8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>250</v>
+      </c>
+      <c r="I9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" t="s">
+        <v>184</v>
+      </c>
+      <c r="K9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>19</v>
+      </c>
+      <c r="F11" s="3">
+        <v>250</v>
+      </c>
+      <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="J11" s="3">
+        <v>13</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" t="s">
+        <v>71</v>
+      </c>
+      <c r="O11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6">
+        <v>20000</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>19</v>
+      </c>
+      <c r="F12" s="3">
+        <v>250</v>
+      </c>
+      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="J12" s="3">
+        <v>13</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" t="s">
+        <v>71</v>
+      </c>
+      <c r="O12" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6">
+        <v>30000</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>19</v>
+      </c>
+      <c r="F13" s="3">
+        <v>250</v>
+      </c>
+      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="J13" s="3">
+        <v>13</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" t="s">
+        <v>71</v>
+      </c>
+      <c r="O13" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2000</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>19</v>
+      </c>
+      <c r="F14" s="3">
+        <v>250</v>
+      </c>
+      <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="J14" s="3">
+        <v>13</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" t="s">
+        <v>71</v>
+      </c>
+      <c r="O14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>19</v>
+      </c>
+      <c r="F15" s="3">
+        <v>250</v>
+      </c>
+      <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="J15" s="3">
+        <v>13</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" t="s">
+        <v>71</v>
+      </c>
+      <c r="O15" t="s">
+        <v>72</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1000</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>19</v>
+      </c>
+      <c r="F16" s="3">
+        <v>250</v>
+      </c>
+      <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="J16" s="3">
+        <v>13</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" t="s">
+        <v>71</v>
+      </c>
+      <c r="O16" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1500</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>19</v>
+      </c>
+      <c r="F17" s="3">
+        <v>250</v>
+      </c>
+      <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="J17" s="3">
+        <v>13</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17" t="s">
+        <v>71</v>
+      </c>
+      <c r="O17" t="s">
+        <v>72</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="3">
-        <v>3.5</v>
-      </c>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6">
+        <v>40000</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>19</v>
+      </c>
+      <c r="F18" s="3">
+        <v>250</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="J18" s="3">
+        <v>13</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" t="s">
+        <v>71</v>
+      </c>
+      <c r="O18" t="s">
+        <v>72</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6">
+        <v>30000</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>19</v>
+      </c>
+      <c r="F19" s="3">
+        <v>250</v>
+      </c>
+      <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>50</v>
+        <v>122</v>
+      </c>
+      <c r="J19" s="3">
+        <v>13</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" t="s">
+        <v>71</v>
+      </c>
+      <c r="O19" t="s">
+        <v>72</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1038,636 +1953,2240 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D67C48F-7CF5-4093-850E-3C240F2E3E21}">
+  <dimension ref="A1:AB34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" s="1"/>
+      <c r="Z1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="9"/>
+    </row>
+    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB2" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="M3" s="14"/>
+      <c r="P3" s="15"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4">
+        <v>914</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
+        <v>105</v>
+      </c>
+      <c r="H4">
+        <v>36</v>
+      </c>
+      <c r="I4" s="5">
+        <v>40000</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" t="s">
-        <v>66</v>
+        <v>108</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>109</v>
       </c>
       <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>73</v>
+        <v>19200</v>
+      </c>
+      <c r="O4" t="s">
+        <v>109</v>
+      </c>
+      <c r="P4" s="15">
+        <v>33.799999999999997</v>
       </c>
       <c r="R4" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="S4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="T4" t="s">
+        <v>111</v>
+      </c>
+      <c r="U4" t="s">
+        <v>112</v>
+      </c>
+      <c r="V4" t="s">
+        <v>111</v>
+      </c>
+      <c r="W4" t="s">
+        <v>113</v>
+      </c>
+      <c r="X4" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z4" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5">
+        <v>24</v>
+      </c>
+      <c r="I5" s="5">
+        <v>3000</v>
+      </c>
+      <c r="J5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L5" t="s">
+        <v>108</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="N5">
+        <v>19200</v>
+      </c>
+      <c r="O5" t="s">
+        <v>109</v>
+      </c>
+      <c r="P5" s="15">
+        <v>204.4</v>
+      </c>
+      <c r="R5" t="s">
+        <v>110</v>
+      </c>
+      <c r="S5" t="s">
+        <v>106</v>
+      </c>
+      <c r="T5" t="s">
+        <v>111</v>
+      </c>
+      <c r="U5" t="s">
+        <v>112</v>
+      </c>
+      <c r="V5" t="s">
+        <v>111</v>
+      </c>
+      <c r="W5" t="s">
+        <v>113</v>
+      </c>
+      <c r="X5" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z5" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6">
+        <v>317</v>
+      </c>
+      <c r="D6" t="s">
+        <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6" s="5">
+        <v>10000</v>
+      </c>
+      <c r="J6" t="s">
+        <v>106</v>
+      </c>
+      <c r="K6" t="s">
+        <v>107</v>
+      </c>
+      <c r="L6" t="s">
+        <v>108</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="N6">
+        <v>19200</v>
+      </c>
+      <c r="O6" t="s">
+        <v>109</v>
+      </c>
+      <c r="P6" s="15">
+        <v>204.4</v>
+      </c>
+      <c r="R6" t="s">
+        <v>110</v>
+      </c>
+      <c r="S6" t="s">
+        <v>106</v>
+      </c>
+      <c r="T6" t="s">
+        <v>111</v>
+      </c>
+      <c r="U6" t="s">
+        <v>112</v>
+      </c>
+      <c r="V6" t="s">
+        <v>111</v>
+      </c>
+      <c r="W6" t="s">
+        <v>113</v>
+      </c>
+      <c r="X6" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z6" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
+      <c r="B7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7">
+        <v>102</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7">
+        <v>60</v>
+      </c>
+      <c r="I7" s="5">
+        <v>3500</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="L7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="N7">
+        <v>19200</v>
+      </c>
+      <c r="O7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P7" s="15">
+        <v>204.4</v>
+      </c>
+      <c r="R7" t="s">
+        <v>110</v>
+      </c>
+      <c r="S7" t="s">
+        <v>121</v>
+      </c>
+      <c r="T7" t="s">
+        <v>111</v>
+      </c>
+      <c r="U7" t="s">
+        <v>112</v>
+      </c>
+      <c r="V7" t="s">
+        <v>111</v>
+      </c>
+      <c r="W7" t="s">
+        <v>113</v>
+      </c>
+      <c r="X7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z7" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA7">
+        <v>0.25</v>
+      </c>
+      <c r="AB7" s="15">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="23">
+        <v>101</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="I8" s="25">
+        <v>10000</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="N8" s="23">
+        <v>19200</v>
+      </c>
+      <c r="O8" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="P8" s="27">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="R8" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="S8" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="T8" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="U8" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="V8" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="W8" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="X8" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y8" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z8" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA8" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M9" s="14"/>
+      <c r="P9" s="15"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>21</v>
+      <c r="D10" t="s">
+        <v>129</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="G10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="J10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="N10">
+        <v>19200</v>
+      </c>
+      <c r="O10" t="s">
+        <v>109</v>
+      </c>
+      <c r="P10" s="15">
+        <v>13.5</v>
+      </c>
+      <c r="R10" t="s">
+        <v>110</v>
+      </c>
+      <c r="S10" t="s">
+        <v>121</v>
+      </c>
+      <c r="T10" t="s">
+        <v>133</v>
+      </c>
+      <c r="U10" t="s">
+        <v>134</v>
+      </c>
+      <c r="V10" t="s">
+        <v>133</v>
+      </c>
+      <c r="W10" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z10" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
+      <c r="B11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="G11" t="s">
+        <v>137</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="J11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="N11">
+        <v>19200</v>
+      </c>
+      <c r="O11" t="s">
+        <v>109</v>
+      </c>
+      <c r="P11" s="15">
+        <v>13.5</v>
+      </c>
+      <c r="R11" t="s">
+        <v>110</v>
+      </c>
+      <c r="S11" t="s">
+        <v>121</v>
+      </c>
+      <c r="T11" t="s">
+        <v>133</v>
+      </c>
+      <c r="U11" t="s">
+        <v>134</v>
+      </c>
+      <c r="V11" t="s">
+        <v>133</v>
+      </c>
+      <c r="W11" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z11" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
+      <c r="B12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>140</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="G12" t="s">
+        <v>141</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s">
+        <v>108</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="N12">
+        <v>19200</v>
+      </c>
+      <c r="O12" t="s">
+        <v>109</v>
+      </c>
+      <c r="P12" s="15">
+        <v>81.8</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>112</v>
+      </c>
+      <c r="R12" t="s">
+        <v>133</v>
+      </c>
+      <c r="S12" t="s">
+        <v>121</v>
+      </c>
+      <c r="T12" t="s">
+        <v>133</v>
+      </c>
+      <c r="U12" t="s">
+        <v>134</v>
+      </c>
+      <c r="V12" t="s">
+        <v>133</v>
+      </c>
+      <c r="W12" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z12" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
+      <c r="B13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" t="s">
+        <v>143</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="G13" t="s">
+        <v>144</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>108</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="N13">
+        <v>19200</v>
+      </c>
+      <c r="O13" t="s">
+        <v>109</v>
+      </c>
+      <c r="P13" s="15">
+        <v>13.5</v>
+      </c>
+      <c r="R13" t="s">
+        <v>110</v>
+      </c>
+      <c r="S13" t="s">
+        <v>121</v>
+      </c>
+      <c r="T13" t="s">
+        <v>133</v>
+      </c>
+      <c r="U13" t="s">
+        <v>134</v>
+      </c>
+      <c r="V13" t="s">
+        <v>133</v>
+      </c>
+      <c r="W13" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z13" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB13" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
-        <v>21</v>
+      <c r="D14" t="s">
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="G14" t="s">
+        <v>147</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="J14" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" t="s">
+        <v>122</v>
+      </c>
+      <c r="L14" t="s">
+        <v>108</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="N14">
+        <v>19200</v>
+      </c>
+      <c r="O14" t="s">
+        <v>109</v>
+      </c>
+      <c r="P14" s="15">
+        <v>81.8</v>
+      </c>
+      <c r="R14" t="s">
+        <v>110</v>
+      </c>
+      <c r="S14" t="s">
+        <v>121</v>
+      </c>
+      <c r="T14" t="s">
+        <v>133</v>
+      </c>
+      <c r="U14" t="s">
+        <v>134</v>
+      </c>
+      <c r="V14" t="s">
+        <v>133</v>
+      </c>
+      <c r="W14" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z14" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB14" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
-        <v>21</v>
+      <c r="D15" t="s">
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="G15" t="s">
+        <v>150</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" t="s">
+        <v>121</v>
+      </c>
+      <c r="K15" t="s">
+        <v>122</v>
+      </c>
+      <c r="L15" t="s">
+        <v>108</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="N15">
+        <v>19200</v>
+      </c>
+      <c r="P15" s="15">
+        <v>13.5</v>
+      </c>
+      <c r="R15" t="s">
+        <v>110</v>
+      </c>
+      <c r="S15" t="s">
+        <v>121</v>
+      </c>
+      <c r="T15" t="s">
+        <v>133</v>
+      </c>
+      <c r="U15" t="s">
+        <v>134</v>
+      </c>
+      <c r="V15" t="s">
+        <v>133</v>
+      </c>
+      <c r="W15" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z15" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA15" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB15" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
+      <c r="B16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="G16" t="s">
+        <v>152</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16" t="s">
+        <v>121</v>
+      </c>
+      <c r="K16" t="s">
+        <v>122</v>
+      </c>
+      <c r="L16" t="s">
+        <v>108</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="N16">
+        <v>19200</v>
+      </c>
+      <c r="O16" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" s="15">
+        <v>13.5</v>
+      </c>
+      <c r="R16" t="s">
+        <v>110</v>
+      </c>
+      <c r="S16" t="s">
+        <v>121</v>
+      </c>
+      <c r="T16" t="s">
+        <v>133</v>
+      </c>
+      <c r="U16" t="s">
+        <v>112</v>
+      </c>
+      <c r="V16" t="s">
+        <v>133</v>
+      </c>
+      <c r="W16" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z16" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA16" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB16" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
+      <c r="B17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>154</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="16">
+        <v>36</v>
+      </c>
+      <c r="I17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" t="s">
+        <v>121</v>
+      </c>
+      <c r="K17" t="s">
+        <v>122</v>
+      </c>
+      <c r="L17" t="s">
+        <v>108</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="N17">
+        <v>19200</v>
+      </c>
+      <c r="O17" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17" s="15">
+        <v>13.5</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>112</v>
+      </c>
+      <c r="R17" t="s">
+        <v>133</v>
+      </c>
+      <c r="S17" t="s">
+        <v>110</v>
+      </c>
+      <c r="U17" t="s">
+        <v>110</v>
+      </c>
+      <c r="W17" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z17" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
-        <v>21</v>
+      <c r="D18" t="s">
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G18" t="s">
+        <v>157</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="J18" t="s">
+        <v>121</v>
+      </c>
+      <c r="K18" t="s">
+        <v>122</v>
+      </c>
+      <c r="L18" t="s">
+        <v>108</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="N18">
+        <v>19200</v>
+      </c>
+      <c r="O18" t="s">
+        <v>109</v>
+      </c>
+      <c r="P18" s="15">
+        <v>13.5</v>
+      </c>
+      <c r="R18" t="s">
+        <v>110</v>
+      </c>
+      <c r="S18" t="s">
+        <v>121</v>
+      </c>
+      <c r="T18" t="s">
+        <v>133</v>
+      </c>
+      <c r="U18" t="s">
+        <v>112</v>
+      </c>
+      <c r="V18" t="s">
+        <v>133</v>
+      </c>
+      <c r="W18" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z18" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M19" s="14"/>
+      <c r="P19" s="15"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M20" s="14"/>
+      <c r="P20" s="15"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M21" s="14"/>
+      <c r="P21" s="15"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M22" s="14"/>
+      <c r="P22" s="15"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M23" s="14"/>
+      <c r="P23" s="15"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M24" s="14"/>
+      <c r="P24" s="15"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M25" s="14"/>
+      <c r="P25" s="15"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M26" s="14"/>
+      <c r="P26" s="15"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M27" s="14"/>
+      <c r="P27" s="15"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M28" s="14"/>
+      <c r="P28" s="15"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M29" s="14"/>
+      <c r="P29" s="15"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M30" s="14"/>
+      <c r="P30" s="15"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M31" s="14"/>
+      <c r="P31" s="15"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M32" s="14"/>
+      <c r="P32" s="15"/>
+    </row>
+    <row r="33" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M33" s="14"/>
+      <c r="P33" s="15"/>
+    </row>
+    <row r="34" spans="13:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M34" s="17"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCF3844-043F-4FFF-912D-CA8A18C6E7BD}">
+  <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>26</v>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>21</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>192</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>62</v>
+      </c>
+      <c r="R4" t="s">
+        <v>64</v>
+      </c>
+      <c r="S4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
+      <c r="B5">
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>160</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>193</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R5" t="s">
+        <v>64</v>
+      </c>
+      <c r="S5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
+      <c r="B6">
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>21</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>192</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>159</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>11359</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>62</v>
+      </c>
+      <c r="R6" t="s">
+        <v>64</v>
+      </c>
+      <c r="S6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>162</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>62</v>
+      </c>
+      <c r="R7" t="s">
+        <v>64</v>
+      </c>
+      <c r="S7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
+      <c r="B8">
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>194</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>159</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R8" t="s">
+        <v>64</v>
+      </c>
+      <c r="S8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>27</v>
+      <c r="B10">
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>162</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>187</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>159</v>
+      </c>
+      <c r="I10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>62</v>
+      </c>
+      <c r="R10" t="s">
+        <v>62</v>
+      </c>
+      <c r="S10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>27</v>
+      <c r="B11">
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
       </c>
+      <c r="D11" s="20" t="s">
+        <v>166</v>
+      </c>
       <c r="E11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" t="s">
+        <v>159</v>
+      </c>
+      <c r="I11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>62</v>
+      </c>
+      <c r="R11" t="s">
+        <v>62</v>
+      </c>
+      <c r="S11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>27</v>
+      <c r="B12">
+        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
       </c>
+      <c r="D12" s="20" t="s">
+        <v>186</v>
+      </c>
       <c r="E12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" t="s">
+        <v>159</v>
+      </c>
+      <c r="I12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>62</v>
+      </c>
+      <c r="R12" t="s">
+        <v>62</v>
+      </c>
+      <c r="S12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>27</v>
+      <c r="B13">
+        <v>1</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
+      <c r="D13" s="20" t="s">
+        <v>188</v>
+      </c>
       <c r="E13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" t="s">
+        <v>170</v>
+      </c>
+      <c r="I13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" t="s">
+        <v>171</v>
+      </c>
+      <c r="L13" t="s">
+        <v>172</v>
+      </c>
+      <c r="M13" t="s">
+        <v>173</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>62</v>
+      </c>
+      <c r="R13" t="s">
+        <v>62</v>
+      </c>
+      <c r="S13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>27</v>
+      <c r="B14">
+        <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
       </c>
+      <c r="D14" s="20" t="s">
+        <v>190</v>
+      </c>
       <c r="E14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>175</v>
+      </c>
+      <c r="H14" t="s">
+        <v>159</v>
+      </c>
+      <c r="I14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14" t="s">
+        <v>173</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>62</v>
+      </c>
+      <c r="R14" t="s">
+        <v>62</v>
+      </c>
+      <c r="S14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>27</v>
+      <c r="B15">
+        <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
       </c>
+      <c r="D15" s="20" t="s">
+        <v>191</v>
+      </c>
       <c r="E15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" t="s">
+        <v>159</v>
+      </c>
+      <c r="I15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" t="s">
+        <v>51</v>
+      </c>
+      <c r="L15" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" t="s">
+        <v>173</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>62</v>
+      </c>
+      <c r="R15" t="s">
+        <v>62</v>
+      </c>
+      <c r="S15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>27</v>
+      <c r="B16">
+        <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
       </c>
+      <c r="D16" s="20" t="s">
+        <v>168</v>
+      </c>
       <c r="E16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" t="s">
+        <v>159</v>
+      </c>
+      <c r="I16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L16" t="s">
+        <v>53</v>
+      </c>
+      <c r="M16" t="s">
+        <v>173</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>62</v>
+      </c>
+      <c r="R16" t="s">
+        <v>62</v>
+      </c>
+      <c r="S16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>27</v>
+      <c r="B17">
+        <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
       </c>
+      <c r="D17" s="20" t="s">
+        <v>189</v>
+      </c>
       <c r="E17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" t="s">
+        <v>159</v>
+      </c>
+      <c r="I17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" t="s">
+        <v>53</v>
+      </c>
+      <c r="M17" t="s">
+        <v>55</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>62</v>
+      </c>
+      <c r="R17" t="s">
+        <v>62</v>
+      </c>
+      <c r="S17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>27</v>
+      <c r="B18">
+        <v>1</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
       </c>
+      <c r="D18" s="20" t="s">
+        <v>187</v>
+      </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" t="s">
+        <v>159</v>
+      </c>
+      <c r="I18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" t="s">
+        <v>51</v>
+      </c>
+      <c r="L18" t="s">
+        <v>53</v>
+      </c>
+      <c r="M18" t="s">
+        <v>55</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>62</v>
+      </c>
+      <c r="R18" t="s">
+        <v>62</v>
+      </c>
+      <c r="S18" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
